--- a/Data/model_outputs_baseline/energy/energy_use_vector_TH.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_TH.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>572031601.8458298</v>
+        <v>548563438.2432095</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>572699968.6619602</v>
+        <v>549204384.6480603</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>573377678.1784645</v>
+        <v>549854290.4597393</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>574064858.917776</v>
+        <v>550513278.9279199</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>574761641.046671</v>
+        <v>551181474.8791573</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>575468156.3895839</v>
+        <v>551859004.7296571</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>576184538.4416054</v>
+        <v>552545996.4977422</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>576910922.3811514</v>
+        <v>553242579.8159999</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>577647445.0822867</v>
+        <v>553948885.9431002</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>578394245.1266761</v>
+        <v>554665047.7752588</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>579151462.8151568</v>
+        <v>555391199.8573315</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>579919240.178911</v>
+        <v>556127478.39353</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>580697720.9902198</v>
+        <v>556874021.257735</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>581487050.7727933</v>
+        <v>557630968.0034027</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>582287376.8116537</v>
+        <v>558398459.8730413</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>583098848.1625665</v>
+        <v>559176639.8072549</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>583921615.6610065</v>
+        <v>559965652.4533442</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>584755831.9306489</v>
+        <v>560765644.1734465</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>585601651.391384</v>
+        <v>561576763.0522225</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>586459230.2668394</v>
+        <v>562399158.9040717</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>587328726.5914227</v>
+        <v>563232983.2798824</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>588210300.2168716</v>
+        <v>564078389.4733171</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>589104112.818314</v>
+        <v>564935532.526621</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>590010327.8998581</v>
+        <v>565804569.235984</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>590929110.7996994</v>
+        <v>566685658.1564375</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>591860628.6947695</v>
+        <v>567578959.6063154</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>592805050.6049433</v>
+        <v>568484635.6712842</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>593762547.3968099</v>
+        <v>569402850.2079601</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>594733291.7870418</v>
+        <v>570333768.8471448</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>595717458.3453838</v>
+        <v>571277558.996686</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>596715223.4972928</v>
+        <v>572234389.8440102</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>597726765.5262586</v>
+        <v>573204432.3583517</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>598752264.5758563</v>
+        <v>574187859.2927147</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>599791902.6515607</v>
+        <v>575184845.1856205</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>600845863.6223814</v>
+        <v>576195566.3626709</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>601914333.2223735</v>
+        <v>577220200.937997</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>602997499.0520725</v>
+        <v>578258928.8156347</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>604095550.5799316</v>
+        <v>579311931.6909077</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>605208679.1438233</v>
+        <v>580379393.0518619</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>606337077.9526856</v>
+        <v>581461498.1808469</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>607480942.08839</v>
+        <v>582558434.1563082</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>608640468.5079268</v>
+        <v>583670389.8548784</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>609815856.0459887</v>
+        <v>584797555.9538611</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>611007305.4180669</v>
+        <v>585940124.9341959</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>612215019.2241526</v>
+        <v>587098291.0840074</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>613439201.9531596</v>
+        <v>588272250.5028484</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>614680059.988184</v>
+        <v>589462201.1067454</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>615937801.6127261</v>
+        <v>590668342.6341615</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>617212637.0180004</v>
+        <v>591890876.6530074</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>618504778.3114589</v>
+        <v>593130006.5688169</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>619814439.526687</v>
+        <v>594385937.6342357</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>621141836.634792</v>
+        <v>595658876.9599415</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>622487187.5574502</v>
+        <v>596949033.5271578</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>623850712.1817538</v>
+        <v>598256618.2018924</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>625232632.3770293</v>
+        <v>599581843.751061</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>626633172.0137663</v>
+        <v>600924924.8606458</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>628052556.9848506</v>
+        <v>602286078.1560514</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>629491015.2292409</v>
+        <v>603665522.2248157</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>630948776.7582788</v>
+        <v>605063477.641837</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>632426073.684798</v>
+        <v>606480166.99729</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>633923140.2552061</v>
+        <v>607915814.9273903</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>635440212.884716</v>
+        <v>609370648.1481835</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>636977530.1959053</v>
+        <v>610844895.4925174</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>638535333.0607663</v>
+        <v>612338787.9503752</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>640113864.6464505</v>
+        <v>613852558.7127316</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>641713370.4648421</v>
+        <v>615386443.2191041</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>643334098.4261609</v>
+        <v>616940679.2089504</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>644976298.8967555</v>
+        <v>618515506.7770902</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>646640224.7612433</v>
+        <v>620111168.4332993</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>648326131.4891659</v>
+        <v>621727909.1662277</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>650034277.20631</v>
+        <v>623365976.5117961</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>651764922.7708448</v>
+        <v>625025620.626209</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>653518331.8544147</v>
+        <v>626707094.3637207</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>655294771.0283222</v>
+        <v>628410653.3592798</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>657094509.8549286</v>
+        <v>630136556.1161859</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>658917820.9843779</v>
+        <v>631885064.098839</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>660764980.2567632</v>
+        <v>633656441.830721</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>662636266.8098228</v>
+        <v>635450956.9976666</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>664531963.192238</v>
+        <v>637268880.5565182</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>666452355.4826237</v>
+        <v>639110486.849231</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>668397733.4142454</v>
+        <v>640976053.7224755</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>670368390.5055128</v>
+        <v>642865862.6527797</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>672364624.1962844</v>
+        <v>644780198.8772347</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>674386735.9899739</v>
+        <v>646719351.5297786</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>676435031.601473</v>
+        <v>648683613.7830466</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>678509821.1108499</v>
+        <v>650673282.995765</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>680611419.1227908</v>
+        <v>652688660.8656517</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>682740144.9317404</v>
+        <v>654730053.5877787</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>684896322.6926209</v>
+        <v>656797772.0182906</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>687080281.5970856</v>
+        <v>658892131.8434278</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>689292356.0551578</v>
+        <v>661013453.7537117</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>691532885.8821319</v>
+        <v>663162063.623175</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>693802216.4905725</v>
+        <v>665338292.6934928</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>696100699.0872618</v>
+        <v>667542477.7628371</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>698428690.8748648</v>
+        <v>669774961.3792815</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>700786555.2581362</v>
+        <v>672036092.0385412</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>703174662.0544103</v>
+        <v>674326224.3858253</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>705593387.7081339</v>
+        <v>676645719.421575</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>708043115.5091685</v>
+        <v>678994944.7108065</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>710524235.8145779</v>
+        <v>681374274.5957967</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>713037146.2735844</v>
+        <v>683784090.411814</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>715582252.0553849</v>
+        <v>686224780.7055881</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>718159966.0794706</v>
+        <v>688696741.4561776</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>720770709.2481091</v>
+        <v>691200376.2979193</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>723414910.6806163</v>
+        <v>693736096.7450823</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>726093007.9490255</v>
+        <v>696304322.4178734</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>728805447.31477</v>
+        <v>698905481.2694082</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>731552683.9659665</v>
+        <v>701540009.8132607</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>734335182.2548871</v>
+        <v>704208353.3511889</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>737153415.9351853</v>
+        <v>706910966.2006341</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>740007868.3984623</v>
+        <v>709648311.9215777</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>742899032.9097099</v>
+        <v>712420863.5423254</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>745827412.8412192</v>
+        <v>715229103.7838211</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>748793521.904485</v>
+        <v>718073525.2820376</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>751797884.3796781</v>
+        <v>720954630.8080319</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>754841035.3422388</v>
+        <v>723872933.4852415</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>757923520.8861479</v>
+        <v>726828957.0036023</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>761045898.3434457</v>
+        <v>729823235.830054</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>764208736.4995722</v>
+        <v>732856315.4150511</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>767412615.8041006</v>
+        <v>735928752.3946464</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>770658128.5764691</v>
+        <v>739041114.7877865</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>773945879.2063034</v>
+        <v>742193982.1884129</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>777276484.3479556</v>
+        <v>745387945.9520224</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>780650573.1088866</v>
+        <v>748623609.3763196</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>784068787.2315619</v>
+        <v>751901587.8756474</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>787531781.268513</v>
+        <v>755222509.1488696</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>791040222.7502667</v>
+        <v>758587013.3404137</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>794594792.3458779</v>
+        <v>761995753.1942105</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>798196184.0157825</v>
+        <v>765449394.2002816</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>801845105.1567566</v>
+        <v>768948614.7337487</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>805542276.7387853</v>
+        <v>772494106.1860894</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>809288433.4336616</v>
+        <v>776086573.0884558</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>813084323.7351711</v>
+        <v>779726733.2269359</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>816930710.0707787</v>
+        <v>783415317.7496517</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>820828368.9047166</v>
+        <v>787153071.2656198</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>824778090.8324525</v>
+        <v>790940751.9353446</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>828780680.6665349</v>
+        <v>794779131.5531427</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>832836957.5138383</v>
+        <v>798668995.6212162</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>836947754.844294</v>
+        <v>802611143.4155681</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>841113920.5512104</v>
+        <v>806606388.0438411</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>845336317.003322</v>
+        <v>810655556.4952384</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>849615821.0887699</v>
+        <v>814759489.6826953</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>853953324.2512231</v>
+        <v>818919042.4775203</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>858349732.5184144</v>
+        <v>823135083.7367609</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>862805966.5233881</v>
+        <v>827408496.3235768</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>867322961.5188018</v>
+        <v>831740177.1209596</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>871901667.3846613</v>
+        <v>836131037.0391445</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>876543048.6298978</v>
+        <v>840582001.0171297</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>881248084.3882515</v>
+        <v>845094008.0187209</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>886017768.4089388</v>
+        <v>849668011.0235873</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>890853109.0426288</v>
+        <v>854304977.0138149</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>895755129.2232863</v>
+        <v>859005886.9564855</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>900724866.4464715</v>
+        <v>863771735.7828761</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>905763372.7447106</v>
+        <v>868603532.3648375</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>910871714.6605932</v>
+        <v>873502299.4889898</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>916050973.2182682</v>
+        <v>878469073.8293948</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>921302243.8940428</v>
+        <v>883504905.9193588</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>926626636.5868183</v>
+        <v>888610860.1230799</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>932025275.5891074</v>
+        <v>893788014.6078553</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>937499299.5594022</v>
+        <v>899037461.3175852</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>943049861.4967035</v>
+        <v>904360305.9483405</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>948678128.7179828</v>
+        <v>909757667.9267594</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>954385282.8394459</v>
+        <v>915230680.3920701</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>960172519.762392</v>
+        <v>920780490.1825337</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>966041049.6645343</v>
+        <v>926408257.8271271</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>971992096.9976504</v>
+        <v>932115157.5432757</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>978026900.4923865</v>
+        <v>937902377.2414755</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>984146713.171122</v>
+        <v>943771118.5376183</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>990352802.3697338</v>
+        <v>949722596.7738714</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>996646449.7691435</v>
+        <v>955758041.0489268</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1003028951.437514</v>
+        <v>961878694.2584629</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1009501617.883943</v>
+        <v>968085813.1466455</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1016065774.124539</v>
+        <v>974380668.3694818</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1022722759.761702</v>
+        <v>980764544.5708563</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1029473929.077468</v>
+        <v>987238740.4720422</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1036320651.14174</v>
+        <v>993804568.9754902</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1043264309.936225</v>
+        <v>1000463357.283688</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1050306304.494885</v>
+        <v>1007216447.03384</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1057448049.061676</v>
+        <v>1014065194.449144</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1064690973.266375</v>
+        <v>1021010970.507397</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1072036522.319224</v>
+        <v>1028055161.127658</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1079486157.225133</v>
+        <v>1035199167.375661</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1087041355.018175</v>
+        <v>1042444405.688693</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1094703609.017043</v>
+        <v>1049792308.120567</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1102474429.102178</v>
+        <v>1057244322.607382</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1110355342.015184</v>
+        <v>1064801913.254654</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1118347891.681194</v>
+        <v>1072466560.646456</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1126453639.554787</v>
+        <v>1080239762.177145</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1134674164.990039</v>
+        <v>1088123032.406232</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1143011065.635289</v>
+        <v>1096117903.436946</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1151465957.85314</v>
+        <v>1104225925.319012</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1160040477.166252</v>
+        <v>1112448666.476156</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1168736278.729411</v>
+        <v>1120787714.158791</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1177555037.828339</v>
+        <v>1129244674.922386</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1186498450.405743</v>
+        <v>1137821175.131916</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1195568233.61502</v>
+        <v>1146518861.492857</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1204766126.402043</v>
+        <v>1155339401.609104</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1214093890.11545</v>
+        <v>1164284484.568218</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1223553309.145796</v>
+        <v>1173355821.554367</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1233146191.593981</v>
+        <v>1182555146.489316</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1242874369.969276</v>
+        <v>1191884216.701828</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1252739701.917317</v>
+        <v>1201344813.625783</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1262744070.978299</v>
+        <v>1210938743.527274</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1272889387.375952</v>
+        <v>1220667838.261208</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1283177588.837361</v>
+        <v>1230533956.057494</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1293610641.444022</v>
+        <v>1240538982.337186</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1304190540.514428</v>
+        <v>1250684830.55886</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1314919311.518472</v>
+        <v>1260973443.095494</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1325799011.02395</v>
+        <v>1271406792.142154</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1336831727.675457</v>
+        <v>1281986880.654721</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1348019583.205948</v>
+        <v>1292715743.319949</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1359364733.481234</v>
+        <v>1303595447.557118</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1370869369.577705</v>
+        <v>1314628094.551537</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1382535718.893551</v>
+        <v>1325815820.320177</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1394366046.293751</v>
+        <v>1337160796.809685</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1406362655.289123</v>
+        <v>1348665233.027065</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1418527889.249709</v>
+        <v>1360331376.203278</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1430864132.652773</v>
+        <v>1372161512.990046</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1443373812.365716</v>
+        <v>1384157970.690125</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1456059398.964184</v>
+        <v>1396323118.521353</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1468923408.085673</v>
+        <v>1408659368.914696</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1481968401.818898</v>
+        <v>1421169178.846645</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1495196990.12927</v>
+        <v>1433855051.206188</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1508611832.32074</v>
+        <v>1446719536.196698</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1522215638.534317</v>
+        <v>1459765232.772961</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1536011171.283582</v>
+        <v>1472994790.113699</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1550001247.027458</v>
+        <v>1486410909.129815</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1564188737.780557</v>
+        <v>1500016344.008675</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1578576572.761376</v>
+        <v>1513813903.794684</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1593167740.07864</v>
+        <v>1527806454.006443</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1607965288.456036</v>
+        <v>1541996918.290726</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1622972328.99561</v>
+        <v>1556388280.113535</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1638192036.980093</v>
+        <v>1570983584.488476</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1653627653.714322</v>
+        <v>1585785939.742644</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1669282488.406018</v>
+        <v>1600798519.320235</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1685159920.08608</v>
+        <v>1616024563.624048</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1701263399.568491</v>
+        <v>1631467381.895007</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1717596451.450041</v>
+        <v>1647130354.12982</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1734162676.14986</v>
+        <v>1663016933.036857</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1750965751.988821</v>
+        <v>1679130646.030227</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1768009437.308789</v>
+        <v>1695475097.262098</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1785297572.631656</v>
+        <v>1712053969.693137</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1802834082.857966</v>
+        <v>1728871027.200958</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1820622979.505008</v>
+        <v>1745930116.726372</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1838668362.98401</v>
+        <v>1763235170.457173</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1856974424.916131</v>
+        <v>1780790208.049107</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1875545450.486767</v>
+        <v>1798599338.883591</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1894385820.837634</v>
+        <v>1816666764.361653</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1913500015.495934</v>
+        <v>1834996780.233457</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1932892614.839904</v>
+        <v>1853593778.962678</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1952568302.599767</v>
+        <v>1872462252.124863</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1972531868.393111</v>
+        <v>1891606792.838792</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1992788210.29352</v>
+        <v>1911032098.229723</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2013342337.431099</v>
+        <v>1930742971.92323</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2034199372.623434</v>
+        <v>1950744326.568234</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2055364555.035335</v>
+        <v>1971041186.387608</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2076843242.865461</v>
+        <v>1991638689.754601</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2098640916.057854</v>
+        <v>2012542091.79312</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2120763179.036076</v>
+        <v>2033756766.999691</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2143215763.4575</v>
+        <v>2055288211.884761</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2166004530.985049</v>
+        <v>2077142047.630723</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2189135476.073433</v>
+        <v>2099324022.763836</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2212614728.76666</v>
+        <v>2121840015.836976</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2236448557.50339</v>
+        <v>2144696038.119889</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2260643371.926283</v>
+        <v>2167898236.293298</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2285205725.691394</v>
+        <v>2191452895.143015</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2310142319.273151</v>
+        <v>2215366440.249861</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2335460002.760256</v>
+        <v>2239645440.67086</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2361165778.637487</v>
+        <v>2264296611.606908</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2387266804.547995</v>
+        <v>2289326817.051751</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2413770396.030373</v>
+        <v>2314743072.416755</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2440684029.224319</v>
+        <v>2340552547.125579</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2468015343.53844</v>
+        <v>2366762567.172514</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2495772144.273216</v>
+        <v>2393380617.637854</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2523962405.191805</v>
+        <v>2420414345.153212</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2552594271.030917</v>
+        <v>2447871560.309403</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2581676059.943534</v>
+        <v>2475760239.998934</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>2611216265.864815</v>
+        <v>2504088529.684856</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>2641223560.792037</v>
+        <v>2532864745.587159</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>2671706796.968999</v>
+        <v>2562097376.777561</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>2702675008.964756</v>
+        <v>2591795087.172963</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>2734137415.636128</v>
+        <v>2621966717.417454</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>2766103421.962919</v>
+        <v>2652621286.642204</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>2798582620.7442</v>
+        <v>2683767994.0922</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>2831584794.143646</v>
+        <v>2715416220.608147</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>2865119915.071247</v>
+        <v>2747575529.951526</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>2899198148.388317</v>
+        <v>2780255669.960126</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>2933829851.922153</v>
+        <v>2813466573.521115</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>2969025577.27619</v>
+        <v>2847218359.34794</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3004796070.421043</v>
+        <v>2881521332.547107</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>3041152272.051206</v>
+        <v>2916385984.960281</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>3078105317.69185</v>
+        <v>2951822995.266669</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>3115666537.539558</v>
+        <v>2987843228.830304</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>3153847456.020388</v>
+        <v>3024457737.276243</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3192659791.048277</v>
+        <v>3061677757.779383</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3232115452.966305</v>
+        <v>3099514712.049174</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>3272226543.152945</v>
+        <v>3137980204.993034</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>3313005352.275064</v>
+        <v>3177086023.041043</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>3354464358.169129</v>
+        <v>3216844132.114051</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>3396616223.33169</v>
+        <v>3257266675.217134</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>3439473791.999958</v>
+        <v>3298365969.639935</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>3483050086.803202</v>
+        <v>3340154503.745453</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3527358304.965299</v>
+        <v>3382644933.328362</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>3572411814.038792</v>
+        <v>3425850077.524116</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>3618224147.150752</v>
+        <v>3469782914.249827</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>3664808997.740635</v>
+        <v>3514456575.158024</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>3712180213.770498</v>
+        <v>3559884340.084387</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>3760351791.387993</v>
+        <v>3606079630.970738</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>3809337868.022872</v>
+        <v>3653056005.244751</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>3859152714.897897</v>
+        <v>3700827148.638133</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>3909810728.935567</v>
+        <v>3749406867.425361</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>3961326424.042547</v>
+        <v>3798809080.065683</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>4013714421.754081</v>
+        <v>3849047808.231374</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>4066989441.221691</v>
+        <v>3900137167.206167</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>4121166288.527927</v>
+        <v>3952091355.63839</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>4176259845.313016</v>
+        <v>4004924644.634236</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4232285056.699335</v>
+        <v>4058651366.177608</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4289256918.500567</v>
+        <v>4113285900.864078</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4347190463.703941</v>
+        <v>4168842664.937655</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4406100748.215163</v>
+        <v>4225336096.6206</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4466002835.857305</v>
+        <v>4282780641.727699</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>4526911782.61655</v>
+        <v>4341190738.558384</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>4588842620.129494</v>
+        <v>4400580802.06144</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>4651810338.408736</v>
+        <v>4460965207.269357</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>4715829867.805564</v>
+        <v>4522358272.000947</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>4780916060.210662</v>
+        <v>4584774238.833354</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>4847083669.496404</v>
+        <v>4648227256.346717</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>4914347331.20659</v>
+        <v>4712731359.647139</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>4982721541.502239</v>
+        <v>4778300450.176254</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>5052220635.374853</v>
+        <v>4844948274.818335</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>5122858764.141526</v>
+        <v>4912688404.318658</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>5194649872.23918</v>
+        <v>4981534211.029792</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>5267607673.33854</v>
+        <v>5051498846.005528</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>5341745625.801657</v>
+        <v>5122595215.465272</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>5417076907.510126</v>
+        <v>5194835956.654956</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>5493614390.094722</v>
+        <v>5268233413.133939</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>5571370612.600556</v>
+        <v>5342799609.520591</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>5650357754.625633</v>
+        <v>5418546225.732817</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>5730587608.974175</v>
+        <v>5495484570.76336</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>5812071553.869928</v>
+        <v>5573625556.033051</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>5894820524.778189</v>
+        <v>5652979668.368891</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>5978844985.88918</v>
+        <v>5733556942.657311</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>6064154901.318898</v>
+        <v>5815366934.226588</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>6150759706.087397</v>
+        <v>5898418691.015699</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>6238668276.937728</v>
+        <v>5982720725.590538</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>6327888903.062731</v>
+        <v>6068280987.071568</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>6418429256.80961</v>
+        <v>6155106833.040356</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>6510296364.436165</v>
+        <v>6243205001.495501</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>6603496576.994937</v>
+        <v>6332581582.931324</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>6698035541.425038</v>
+        <v>6423241992.615657</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>6793918171.93364</v>
+        <v>6515190943.145458</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>6891148621.751886</v>
+        <v>6608432417.361431</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>6989730255.351857</v>
+        <v>6702969641.704862</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>7089665621.213486</v>
+        <v>6798805060.101768</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>7190956425.231527</v>
+        <v>6895940308.460884</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>7293603504.854211</v>
+        <v>6994376189.873289</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>7355806899.931088</v>
+        <v>7050717527.350204</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>7418829097.349906</v>
+        <v>7107801594.443946</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>7482667354.711616</v>
+        <v>7165625695.692867</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>7547318249.901919</v>
+        <v>7224186506.217158</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>7612777666.104599</v>
+        <v>7283480057.808379</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>7679040777.636562</v>
+        <v>7343501725.770279</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>7746102036.665215</v>
+        <v>7404246216.56677</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>7813955160.867445</v>
+        <v>7465707556.331717</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>7882593122.088423</v>
+        <v>7527879080.294277</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>7952008136.056855</v>
+        <v>7590753423.172095</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>8022191653.211378</v>
+        <v>7654322510.583145</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>8093134350.690959</v>
+        <v>7718577551.52497</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>8164826125.53944</v>
+        <v>7783509031.968243</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>8237256089.172186</v>
+        <v>7849106709.609053</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>8310412563.149734</v>
+        <v>7915359609.82203</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>8384283076.300279</v>
+        <v>7982129146.794676</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>8458854363.229675</v>
+        <v>8049528430.956895</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>8534112364.254088</v>
+        <v>8117544288.424552</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>8610042226.78689</v>
+        <v>8186162810.314363</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>8686628308.207405</v>
+        <v>8255369355.217449</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>8763854180.235518</v>
+        <v>8325148553.060677</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>8841702634.831705</v>
+        <v>8395484310.375322</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>8920155691.638319</v>
+        <v>8466359816.989192</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>8999194606.973444</v>
+        <v>8537757554.154452</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>9078799884.384672</v>
+        <v>8609659304.119745</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>9143675903.899628</v>
+        <v>8678968235.845957</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>9208946475.001753</v>
+        <v>8748716376.17071</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>9274591687.55459</v>
+        <v>8818883838.037165</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>9340590994.60145</v>
+        <v>8889450099.872986</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>9406923226.898745</v>
+        <v>8960394021.621029</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>9473566608.745756</v>
+        <v>9031693862.144205</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>9540498775.09679</v>
+        <v>9103327297.989433</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>9607696789.939266</v>
+        <v>9175271443.492359</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>9675137165.91857</v>
+        <v>9247502872.201784</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>9742795885.188505</v>
+        <v>9319997639.599705</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>9806097777.047363</v>
+        <v>9400614264.164164</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>9869537888.254749</v>
+        <v>9481497864.949551</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>9933091338.051214</v>
+        <v>9562622067.345165</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>9996732813.143105</v>
+        <v>9643960077.096138</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>10060436592.7095</v>
+        <v>9725484711.799112</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>10124176574.43356</v>
+        <v>9807168433.560772</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>10187926301.53086</v>
+        <v>9888983382.773115</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>10251658990.74578</v>
+        <v>9970901412.956621</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>10315347561.28783</v>
+        <v>10052894126.62093</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>10378964664.67864</v>
+        <v>10134932912.09024</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>10409276936.74094</v>
+        <v>10174560894.40183</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>10439292206.75443</v>
+        <v>10213959817.25645</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>10468986243.70632</v>
+        <v>10253105425.67596</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>10498334577.2322</v>
+        <v>10291973279.08656</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>10527312519.25466</v>
+        <v>10330538776.35543</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>10555895186.40588</v>
+        <v>10368777181.49172</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>10584057523.24474</v>
+        <v>10406663649.99407</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>10611774326.2806</v>
+        <v>10444173255.82575</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>10639020268.81823</v>
+        <v>10481281018.99899</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>10665769926.63967</v>
+        <v>10517961933.74893</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>10677464255.48833</v>
+        <v>10542498143.26609</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10688553210.27273</v>
+        <v>10566510823.03071</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10699012149.87503</v>
+        <v>10589975799.07736</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10708816355.68995</v>
+        <v>10612868916.28147</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10717941057.41199</v>
+        <v>10635166065.64969</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10726361459.9709</v>
+        <v>10656843212.21775</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10734052771.66317</v>
+        <v>10677876423.54985</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10740990233.53043</v>
+        <v>10698241898.83451</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10747149150.03619</v>
+        <v>10717915998.57207</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10752504921.09576</v>
+        <v>10736875274.85021</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10757033075.51461</v>
+        <v>10755096502.20523</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>10760709305.89265</v>
+        <v>10772556709.0676</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10763509505.05268</v>
+        <v>10789233209.79305</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10765409804.05231</v>
+        <v>10805103637.28155</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10766386611.83895</v>
+        <v>10820145976.18978</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10766416656.60762</v>
+        <v>10834338596.7449</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10765477028.92082</v>
+        <v>10847660289.1712</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10763545226.64849</v>
+        <v>10860090298.74379</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10760599201.78431</v>
+        <v>10871608361.48827</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10756617409.19212</v>
+        <v>10882194740.54856</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10751578857.33253</v>
+        <v>10891830263.2497</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10745463161.01532</v>
+        <v>10900496358.88652</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10738250596.21763</v>
+        <v>10908175097.27352</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>10729922157.00071</v>
+        <v>10914849228.09529</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>10720459614.54991</v>
+        <v>10920502221.1008</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>10709845578.35222</v>
+        <v>10925118307.18804</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>10698063559.51445</v>
+        <v>10928682520.42828</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>10685098036.21089</v>
+        <v>10931180741.08097</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>10670934521.23456</v>
+        <v>10932599739.65074</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>10655559631.60779</v>
+        <v>10932927222.03729</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>10638961160.18797</v>
+        <v>10932151875.82609</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>10621128149.18269</v>
+        <v>10930263417.7635</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>10602050965.4625</v>
+        <v>10927252642.45308</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>10581721377.53347</v>
+        <v>10923111472.29976</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>10560132634.00086</v>
+        <v>10917833008.71707</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>10537279543.32369</v>
+        <v>10911411584.59632</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>10513158554.62435</v>
+        <v>10903842818.01836</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>10487767839.28086</v>
+        <v>10895123667.16513</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>10461107372.9893</v>
+        <v>10885252486.36318</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>10433179017.94291</v>
+        <v>10874229083.15999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/energy_use_vector_TH.xlsx
+++ b/Data/model_outputs_baseline/energy/energy_use_vector_TH.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>548563438.2432095</v>
+        <v>55483181.55633657</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>549204384.6480603</v>
+        <v>55548008.59960818</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>549854290.4597393</v>
+        <v>55613741.82138357</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>550513278.9279199</v>
+        <v>55680393.68746615</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>551181474.8791573</v>
+        <v>55747976.82314949</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>551859004.7296571</v>
+        <v>55816504.01450863</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>552545996.4977422</v>
+        <v>55885988.20966106</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>553242579.8159999</v>
+        <v>55956442.51999529</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>553948885.9431002</v>
+        <v>56027880.2213663</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>554665047.7752588</v>
+        <v>56100314.75525471</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>555391199.8573315</v>
+        <v>56173759.72988915</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>556127478.39353</v>
+        <v>56248228.92132987</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>556874021.257735</v>
+        <v>56323736.27451212</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>557630968.0034027</v>
+        <v>56400295.90424766</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>558398459.8730413</v>
+        <v>56477922.09618367</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>559176639.8072549</v>
+        <v>56556629.30771741</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>559965652.4533442</v>
+        <v>56636432.16886581</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>560765644.1734465</v>
+        <v>56717345.48308916</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>561576763.0522225</v>
+        <v>56799384.2280683</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>562399158.9040717</v>
+        <v>56882563.55643446</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>563232983.2798824</v>
+        <v>56966898.79645229</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>564078389.4733171</v>
+        <v>57052405.45265484</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>564935532.526621</v>
+        <v>57139099.206432</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>565804569.235984</v>
+        <v>57226995.91657208</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>566685658.1564375</v>
+        <v>57316111.61975743</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>567578959.6063154</v>
+        <v>57406462.53101546</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>568484635.6712842</v>
+        <v>57498065.04412644</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>569402850.2079601</v>
+        <v>57590935.73198932</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>570333768.8471448</v>
+        <v>57685091.34694878</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>571277558.996686</v>
+        <v>57780548.8210848</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>572234389.8440102</v>
+        <v>57877325.26646878</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>573204432.3583517</v>
+        <v>57975437.97538885</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>574187859.2927147</v>
+        <v>58074904.42054866</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>575184845.1856205</v>
+        <v>58175742.25524352</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>576195566.3626709</v>
+        <v>58277969.31351907</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>577220200.937997</v>
+        <v>58381603.61031749</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>578258928.8156347</v>
+        <v>58486663.34161714</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>579311931.6909077</v>
+        <v>58593166.88457146</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>580379393.0518619</v>
+        <v>58701132.79765504</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>581461498.1808469</v>
+        <v>58810579.82082304</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>582558434.1563082</v>
+        <v>58921526.87569254</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>583670389.8548784</v>
+        <v>59033993.06575429</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>584797555.9538611</v>
+        <v>59147997.67662355</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>585940124.9341959</v>
+        <v>59263560.17634016</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>587098291.0840074</v>
+        <v>59380700.21572772</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>588272250.5028484</v>
+        <v>59499437.62882247</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>589462201.1067454</v>
+        <v>59619792.43338347</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>590668342.6341615</v>
+        <v>59741784.83149626</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>591890876.6530074</v>
+        <v>59865435.2102813</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>593130006.5688169</v>
+        <v>59990764.14272149</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>594385937.6342357</v>
+        <v>60117792.38862146</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>595658876.9599415</v>
+        <v>60246540.89571214</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>596949033.5271578</v>
+        <v>60377030.80091657</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>598256618.2018924</v>
+        <v>60509283.43178991</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>599581843.751061</v>
+        <v>60643320.30815023</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>600924924.8606458</v>
+        <v>60779163.14391524</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>602286078.1560514</v>
+        <v>60916833.84916111</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>603665522.2248157</v>
+        <v>61056354.53241913</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>605063477.641837</v>
+        <v>61197747.50322783</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>606480166.99729</v>
+        <v>61341035.27495618</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>607915814.9273903</v>
+        <v>61486240.5679153</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>609370648.1481835</v>
+        <v>61633386.31277561</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>610844895.4925174</v>
+        <v>61782495.654307</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>612338787.9503752</v>
+        <v>61933591.95545744</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>613852558.7127316</v>
+        <v>62086698.80178962</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>615386443.2191041</v>
+        <v>62241840.00628919</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>616940679.2089504</v>
+        <v>62399039.61456462</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>618515506.7770902</v>
+        <v>62558321.91045158</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>620111168.4332993</v>
+        <v>62719711.42204109</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>621727909.1662277</v>
+        <v>62883232.92814412</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>623365976.5117961</v>
+        <v>63048911.46520949</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>625025620.626209</v>
+        <v>63216772.33470852</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>626707094.3637207</v>
+        <v>63386841.11100046</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>628410653.3592798</v>
+        <v>63559143.64969185</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>630136556.1161859</v>
+        <v>63733706.09650133</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>631885064.098839</v>
+        <v>63910554.89664184</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>633656441.830721</v>
+        <v>64089716.8047297</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>635450956.9976666</v>
+        <v>64271218.89523007</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>637268880.5565182</v>
+        <v>64455088.57344691</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>639110486.849231</v>
+        <v>64641353.58706341</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>640976053.7224755</v>
+        <v>64830042.03823908</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>642865862.6527797</v>
+        <v>65021182.396267</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>644780198.8772347</v>
+        <v>65214803.51079382</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>646719351.5297786</v>
+        <v>65410934.62560371</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>648683613.7830466</v>
+        <v>65609605.39296535</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>650673282.995765</v>
+        <v>65810845.8885402</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>652688660.8656517</v>
+        <v>66014686.62684688</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>654730053.5877787</v>
+        <v>66221158.57727839</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>656797772.0182906</v>
+        <v>66430293.18066157</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>658892131.8434278</v>
+        <v>66642122.3663516</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>661013453.7537117</v>
+        <v>66856678.56985045</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>663162063.623175</v>
+        <v>67073994.75093424</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>665338292.6934928</v>
+        <v>67294104.41227669</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>667542477.7628371</v>
+        <v>67517041.61855109</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>669774961.3792815</v>
+        <v>67742841.01599073</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>672036092.0385412</v>
+        <v>67971537.85238956</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>674326224.3858253</v>
+        <v>68203167.99751803</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>676645719.421575</v>
+        <v>68437767.96393152</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>678994944.7108065</v>
+        <v>68675374.92814438</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>681374274.5957967</v>
+        <v>68916026.75214137</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>683784090.411814</v>
+        <v>69159762.00519735</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>686224780.7055881</v>
+        <v>69406619.98597328</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>688696741.4561776</v>
+        <v>69656640.74485646</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>691200376.2979193</v>
+        <v>69909865.10650915</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>693736096.7450823</v>
+        <v>70166334.69259131</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>696304322.4178734</v>
+        <v>70426091.94461937</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>698905481.2694082</v>
+        <v>70689180.14692241</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>701540009.8132607</v>
+        <v>70955643.44965726</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>704208353.3511889</v>
+        <v>71225526.89184161</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>706910966.2006341</v>
+        <v>71498876.42436329</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>709648311.9215777</v>
+        <v>71775738.93292551</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>712420863.5423254</v>
+        <v>72056162.26088361</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>715229103.7838211</v>
+        <v>72340195.23193203</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>718073525.2820376</v>
+        <v>72627887.67259794</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>720954630.8080319</v>
+        <v>72919290.43449837</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>723872933.4852415</v>
+        <v>73214455.41631806</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>726828957.0036023</v>
+        <v>73513435.5854654</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>729823235.830054</v>
+        <v>73816284.9993643</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>732856315.4150511</v>
+        <v>74123058.82634068</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>735928752.3946464</v>
+        <v>74433813.36606213</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>739041114.7877865</v>
+        <v>74748606.06949262</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>742193982.1884129</v>
+        <v>75067495.55832233</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>745387945.9520224</v>
+        <v>75390541.6438366</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>748623609.3763196</v>
+        <v>75717805.34518784</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>751901587.8756474</v>
+        <v>76049348.90703811</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>755222509.1488696</v>
+        <v>76385235.8165386</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>758587013.3404137</v>
+        <v>76725530.81961857</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>761995753.1942105</v>
+        <v>77070299.93655463</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>765449394.2002816</v>
+        <v>77419610.47679749</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>768948614.7337487</v>
+        <v>77773531.0530317</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>772494106.1860894</v>
+        <v>78132131.59445062</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>776086573.0884558</v>
+        <v>78495483.35923004</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>779726733.2269359</v>
+        <v>78863658.94618537</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>783415317.7496517</v>
+        <v>79236732.30560417</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>787153071.2656198</v>
+        <v>79614778.74924512</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>790940751.9353446</v>
+        <v>79997874.95950076</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>794779131.5531427</v>
+        <v>80386098.99772398</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>798668995.6212162</v>
+        <v>80779530.31172045</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>802611143.4155681</v>
+        <v>81178249.74241456</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>806606388.0438411</v>
+        <v>81582339.52970037</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>810655556.4952384</v>
+        <v>81991883.31748997</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>814759489.6826953</v>
+        <v>82406966.15797968</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>818919042.4775203</v>
+        <v>82827674.51515251</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>823135083.7367609</v>
+        <v>83254096.26754747</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>827408496.3235768</v>
+        <v>83686320.71031886</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>831740177.1209596</v>
+        <v>84124438.55662479</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>836131037.0391445</v>
+        <v>84568541.93837649</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>840582001.0171297</v>
+        <v>85018724.40639162</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>845094008.0187209</v>
+        <v>85475080.92999536</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>849668011.0235873</v>
+        <v>85937707.89611433</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>854304977.0138149</v>
+        <v>86406703.10791741</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>859005886.9564855</v>
+        <v>86882165.78305395</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>863771735.7828761</v>
+        <v>87364196.551549</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>868603532.3648375</v>
+        <v>87852897.45341513</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>873502299.4889898</v>
+        <v>88348371.93604204</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>878469073.8293948</v>
+        <v>88850724.8514324</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>883504905.9193588</v>
+        <v>89360062.45335042</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>888610860.1230799</v>
+        <v>89876492.39445379</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>893788014.6078553</v>
+        <v>90400123.7234828</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>899037461.3175852</v>
+        <v>90931066.88258028</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>904360305.9483405</v>
+        <v>91469433.70482084</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>909757667.9267594</v>
+        <v>92015337.41202545</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>915230680.3920701</v>
+        <v>92568892.61294341</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>920780490.1825337</v>
+        <v>93130215.30188087</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>926408257.8271271</v>
+        <v>93699422.85785982</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>932115157.5432757</v>
+        <v>94276634.04438893</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>937902377.2414755</v>
+        <v>94861969.00993077</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>943771118.5376183</v>
+        <v>95455549.28914863</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>949722596.7738714</v>
+        <v>96057497.8050178</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>955758041.0489268</v>
+        <v>96667938.87188597</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>961878694.2584629</v>
+        <v>97286998.19956489</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>968085813.1466455</v>
+        <v>97914802.8985396</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>974380668.3694818</v>
+        <v>98551481.4863762</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>980764544.5708563</v>
+        <v>99197163.89541236</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>987238740.4720422</v>
+        <v>99851981.4818106</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>993804568.9754902</v>
+        <v>100516067.0360562</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1000463357.283688</v>
+        <v>101189554.7949782</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1007216447.03384</v>
+        <v>101872580.4553719</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1014065194.449144</v>
+        <v>102565281.1892993</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1021010970.507397</v>
+        <v>103267795.6611422</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1028055161.127658</v>
+        <v>103980264.0464815</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1035199167.375661</v>
+        <v>104702828.0528742</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1042444405.688693</v>
+        <v>105435630.942597</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1049792308.120567</v>
+        <v>106178817.5574242</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1057244322.607382</v>
+        <v>106932534.3455071</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1064801913.254654</v>
+        <v>107696929.3904155</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1072466560.646456</v>
+        <v>108472152.4424049</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1080239762.177145</v>
+        <v>109258354.9519677</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1088123032.406232</v>
+        <v>110055690.1057265</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1096117903.436946</v>
+        <v>110864312.8647225</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1104225925.319012</v>
+        <v>111684380.0051541</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1112448666.476156</v>
+        <v>112516050.1616151</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1120787714.158791</v>
+        <v>113359483.8728818</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1129244674.922386</v>
+        <v>114214843.6302947</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1137821175.131916</v>
+        <v>115082293.928782</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1146518861.492857</v>
+        <v>115962001.3205645</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1155339401.609104</v>
+        <v>116854134.4715852</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1164284484.568218</v>
+        <v>117758864.2207031</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1173355821.554367</v>
+        <v>118676363.6416873</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1182555146.489316</v>
+        <v>119606808.1080485</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1191884216.701828</v>
+        <v>120550375.3607445</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1201344813.625783</v>
+        <v>121507245.5787893</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1210938743.527274</v>
+        <v>122477601.4527933</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1220667838.261208</v>
+        <v>123461628.2614891</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1230533956.057494</v>
+        <v>124459513.9512475</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1240538982.337186</v>
+        <v>125471449.2186249</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1250684830.55886</v>
+        <v>126497627.5959679</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1260973443.095494</v>
+        <v>127538245.540104</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1271406792.142154</v>
+        <v>128593502.5241465</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1281986880.654721</v>
+        <v>129663601.1324401</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1292715743.319949</v>
+        <v>130748747.1586758</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1303595447.557118</v>
+        <v>131849149.7072002</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1314628094.551537</v>
+        <v>132965021.2975465</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1325815820.320177</v>
+        <v>134096577.9722164</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1337160796.809685</v>
+        <v>135244039.4077353</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1348665233.027065</v>
+        <v>136407629.029013</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1360331376.203278</v>
+        <v>137587574.1270329</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1372161512.990046</v>
+        <v>138784105.9799004</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1384157970.690125</v>
+        <v>139997459.9772759</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1396323118.521353</v>
+        <v>141227875.7482236</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1408659368.914696</v>
+        <v>142475597.2924998</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1421169178.846645</v>
+        <v>143740873.1153151</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1433855051.206188</v>
+        <v>145023956.3655936</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1446719536.196698</v>
+        <v>146325104.9777633</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1459765232.772961</v>
+        <v>147644581.8171016</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1472994790.113699</v>
+        <v>148982654.8286694</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1486410909.129815</v>
+        <v>150339597.1898601</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1500016344.008675</v>
+        <v>151715687.4665914</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1513813903.794684</v>
+        <v>153111209.7731694</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1527806454.006443</v>
+        <v>154526453.9358526</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1541996918.290726</v>
+        <v>155961715.6601393</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1556388280.113535</v>
+        <v>157417296.7018052</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1570983584.488476</v>
+        <v>158893505.0417161</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1585785939.742644</v>
+        <v>160390655.0644346</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1600798519.320235</v>
+        <v>161909067.7406422</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1616024563.624048</v>
+        <v>163449070.8133928</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1631467381.895007</v>
+        <v>165010998.9882146</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1647130354.12982</v>
+        <v>166595194.1270651</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1663016933.036857</v>
+        <v>168202005.4461553</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1679130646.030227</v>
+        <v>169831789.7176355</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1695475097.262098</v>
+        <v>171484911.4751493</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1712053969.693137</v>
+        <v>173161743.2232449</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1728871027.200958</v>
+        <v>174862665.6506271</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1745930116.726372</v>
+        <v>176588067.8472365</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1763235170.457173</v>
+        <v>178338347.525122</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1780790208.049107</v>
+        <v>180113911.2430777</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1798599338.883591</v>
+        <v>181915174.6349921</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1816666764.361653</v>
+        <v>183742562.6418656</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1834996780.233457</v>
+        <v>185596509.7474232</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1853593778.962678</v>
+        <v>187477460.2172555</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1872462252.124863</v>
+        <v>189385868.3413934</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1891606792.838792</v>
+        <v>191322198.6802242</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1911032098.229723</v>
+        <v>193286926.3136295</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1930742971.92323</v>
+        <v>195280537.09322</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1950744326.568234</v>
+        <v>197303527.8975204</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1971041186.387608</v>
+        <v>199356406.8899451</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1991638689.754601</v>
+        <v>201439693.7793852</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2012542091.79312</v>
+        <v>203553920.0832059</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2033756766.999691</v>
+        <v>205699629.392442</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2055288211.884761</v>
+        <v>207877377.6389428</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2077142047.630723</v>
+        <v>210087733.3642144</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2099324022.763836</v>
+        <v>212331277.9896638</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2121840015.836976</v>
+        <v>214608606.0879401</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2144696038.119889</v>
+        <v>216920325.655033</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2167898236.293298</v>
+        <v>219267058.3827627</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2191452895.143015</v>
+        <v>221649439.93127</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2215366440.249861</v>
+        <v>224068120.2010816</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2239645440.67086</v>
+        <v>226523763.6042925</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2264296611.606908</v>
+        <v>229017049.3343827</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2289326817.051751</v>
+        <v>231548671.6341411</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2314743072.416755</v>
+        <v>234119340.0611419</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2340552547.125579</v>
+        <v>236729779.7501764</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2366762567.172514</v>
+        <v>239380731.6720117</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2393380617.637854</v>
+        <v>242072952.8877996</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2420414345.153212</v>
+        <v>244807216.7984291</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2447871560.309403</v>
+        <v>247584313.3880616</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2475760239.998934</v>
+        <v>250405049.4610606</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>2504088529.684856</v>
+        <v>253270248.871466</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>2532864745.587159</v>
+        <v>256180752.7441355</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>2562097376.777561</v>
+        <v>259137419.686615</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>2591795087.172963</v>
+        <v>262141125.9907618</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>2621966717.417454</v>
+        <v>265192765.8230969</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>2652621286.642204</v>
+        <v>268293251.402805</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>2683767994.0922</v>
+        <v>271443513.1662658</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>2715416220.608147</v>
+        <v>274644499.9169396</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>2747575529.951526</v>
+        <v>277897178.9593838</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>2780255669.960126</v>
+        <v>281202536.2161318</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>2813466573.521115</v>
+        <v>284561576.326106</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>2847218359.34794</v>
+        <v>287975322.7232</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>2881521332.547107</v>
+        <v>291444817.6936026</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>2916385984.960281</v>
+        <v>294971122.4103982</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>2951822995.266669</v>
+        <v>298555316.9439234</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>2987843228.830304</v>
+        <v>302198500.2463199</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>3024457737.276243</v>
+        <v>305901790.1086698</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3061677757.779383</v>
+        <v>309666323.0890667</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3099514712.049174</v>
+        <v>313493254.409923</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>3137980204.993034</v>
+        <v>317383757.822788</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>3177086023.041043</v>
+        <v>321339025.4389005</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>3216844132.114051</v>
+        <v>325360267.5236793</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>3257266675.217134</v>
+        <v>329448712.2533163</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>3298365969.639935</v>
+        <v>333605605.4316157</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>3340154503.745453</v>
+        <v>384677201.2900776</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>3382644933.328362</v>
+        <v>436542822.1028351</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>3425850077.524116</v>
+        <v>489215944.321484</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>3469782914.249827</v>
+        <v>542710212.3519202</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>3514456575.158024</v>
+        <v>597039434.0792799</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>3559884340.084387</v>
+        <v>652217575.851632</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>3606079630.970738</v>
+        <v>708258756.9015259</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>3653056005.244751</v>
+        <v>765177243.1846073</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>3700827148.638133</v>
+        <v>822987440.6147478</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>3749406867.425361</v>
+        <v>881703887.6755595</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>3798809080.065683</v>
+        <v>941341247.3885291</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>3849047808.231374</v>
+        <v>1001914298.618489</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>3900137167.206167</v>
+        <v>1063437926.697879</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>3952091355.63839</v>
+        <v>1125927113.351889</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>4004924644.634236</v>
+        <v>1189396925.907456</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4058651366.177608</v>
+        <v>1253862505.770071</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4113285900.864078</v>
+        <v>1319339056.153387</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4168842664.937655</v>
+        <v>1385841829.04784</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4225336096.6206</v>
+        <v>1453386111.415938</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4282780641.727699</v>
+        <v>1521987210.603149</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>4341190738.558384</v>
+        <v>1591660438.955163</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>4400580802.06144</v>
+        <v>1662421097.633825</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>4460965207.269357</v>
+        <v>1734284459.62618</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>4522358272.000947</v>
+        <v>1807265751.942877</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>4584774238.833354</v>
+        <v>1881380137.004518</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>4648227256.346717</v>
+        <v>1956642693.216827</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>4712731359.647139</v>
+        <v>2033068394.737959</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>4778300450.176254</v>
+        <v>2110672090.4439</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>4844948274.818335</v>
+        <v>2189468482.100711</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>4912688404.318658</v>
+        <v>2269472101.755184</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>4981534211.029792</v>
+        <v>2350697288.358547</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>5051498846.005528</v>
+        <v>2433158163.640986</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>5122595215.465272</v>
+        <v>2516868607.258028</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>5194835956.654956</v>
+        <v>2601842231.233183</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>5268233413.133939</v>
+        <v>2688092353.724742</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>5342799609.520591</v>
+        <v>2775631972.148165</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>5418546225.732817</v>
+        <v>2864473735.6891</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>5495484570.76336</v>
+        <v>2954629917.245899</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>5573625556.033051</v>
+        <v>3046112384.844074</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>5652979668.368891</v>
+        <v>3138932572.569036</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>5733556942.657311</v>
+        <v>3233101451.067198</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>5815366934.226588</v>
+        <v>3328629497.669341</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>5898418691.015699</v>
+        <v>3425526666.193921</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>5982720725.590538</v>
+        <v>3523802356.49155</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>6068280987.071568</v>
+        <v>3623465383.79589</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>6155106833.040356</v>
+        <v>3724523947.949288</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>6243205001.495501</v>
+        <v>3826985602.575387</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>6332581582.931324</v>
+        <v>3930857224.273853</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>6423241992.615657</v>
+        <v>4036144981.915833</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>6515190943.145458</v>
+        <v>4142854306.121467</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>6608432417.361431</v>
+        <v>4250989859.003666</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>6702969641.704862</v>
+        <v>4360555504.264769</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>6798805060.101768</v>
+        <v>4471554277.735004</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>6895940308.460884</v>
+        <v>4583988358.443582</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>6994376189.873289</v>
+        <v>4697859040.314867</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>7050717527.350204</v>
+        <v>4769771581.331292</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>7107801594.443946</v>
+        <v>4842563630.513621</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>7165625695.692867</v>
+        <v>4916232804.665421</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>7224186506.217158</v>
+        <v>4990776024.215055</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>7283480057.808379</v>
+        <v>5066189495.505066</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>7343501725.770279</v>
+        <v>5142468693.793889</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>7404246216.56677</v>
+        <v>5219608347.033567</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>7465707556.331717</v>
+        <v>5297602420.486493</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>7527879080.294277</v>
+        <v>5376444102.243574</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>7590753423.172095</v>
+        <v>5456125789.705379</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>7654322510.583145</v>
+        <v>5536639077.086509</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>7718577551.52497</v>
+        <v>5617974744.002053</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>7783509031.968243</v>
+        <v>5700122745.193352</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>7849106709.609053</v>
+        <v>5783072201.448231</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>7915359609.82203</v>
+        <v>5866811391.768916</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>7982129146.794676</v>
+        <v>5951200870.779388</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>8049528430.956895</v>
+        <v>6036352772.497948</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>8117544288.424552</v>
+        <v>6122252826.20567</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>8186162810.314363</v>
+        <v>6208885902.280423</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>8255369355.217449</v>
+        <v>6296236011.296122</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>8325148553.060677</v>
+        <v>6384286304.628943</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>8395484310.375322</v>
+        <v>6473019076.602783</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>8466359816.989192</v>
+        <v>6562415768.202923</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>8537757554.154452</v>
+        <v>6652456972.382976</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>8609659304.119745</v>
+        <v>6743122440.986642</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>8678968235.845957</v>
+        <v>6831313167.996402</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>8748716376.17071</v>
+        <v>6920058858.427001</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>8818883838.037165</v>
+        <v>7009337154.491937</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>8889450099.872986</v>
+        <v>7099124913.141153</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>8960394021.621029</v>
+        <v>7189398220.483813</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>9031693862.144205</v>
+        <v>7280132407.830337</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>9103327297.989433</v>
+        <v>7371302069.350286</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>9175271443.492359</v>
+        <v>7462881081.338871</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>9247502872.201784</v>
+        <v>7554842623.081673</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>9319997639.599705</v>
+        <v>7647159199.303763</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>9400614264.164164</v>
+        <v>7747685621.259964</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>9481497864.949551</v>
+        <v>7848563144.649934</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>9562622067.345165</v>
+        <v>7949761376.02717</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>9643960077.096138</v>
+        <v>8051249347.793816</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>9725484711.799112</v>
+        <v>8152995551.000238</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>9807168433.560772</v>
+        <v>8254967969.64385</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>9888983382.773115</v>
+        <v>8357134116.425929</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>9970901412.956621</v>
+        <v>8459461069.922078</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>10052894126.62093</v>
+        <v>8561915513.119124</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>10134932912.09024</v>
+        <v>8664463773.268095</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>10174560894.40183</v>
+        <v>8724643776.162903</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>10213959817.25645</v>
+        <v>8784631931.823784</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>10253105425.67596</v>
+        <v>8844398521.240036</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>10291973279.08656</v>
+        <v>8903913513.88847</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>10330538776.35543</v>
+        <v>8963146597.552279</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>10368777181.49172</v>
+        <v>9022067209.147112</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>10406663649.99407</v>
+        <v>9080644566.531143</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>10444173255.82575</v>
+        <v>9138847701.273685</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>10481281018.99899</v>
+        <v>9196645492.356215</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>10517961933.74893</v>
+        <v>9254006700.777393</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>10542498143.26609</v>
+        <v>9299207151.020933</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>10566510823.03071</v>
+        <v>9343861621.418604</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>10589975799.07736</v>
+        <v>9387939469.724251</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>10612868916.28147</v>
+        <v>9431410008.977341</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>10635166065.64969</v>
+        <v>9474242542.623339</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>10656843212.21775</v>
+        <v>9516406400.479103</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>10677876423.54985</v>
+        <v>9557870975.520803</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>10698241898.83451</v>
+        <v>9598605761.471796</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>10717915998.57207</v>
+        <v>9638580391.167364</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>10736875274.85021</v>
+        <v>9677764675.673338</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>10755096502.20523</v>
+        <v>9716128644.136282</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>10772556709.0676</v>
+        <v>9753642584.343107</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>10789233209.79305</v>
+        <v>9790277083.96974</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>10805103637.28155</v>
+        <v>9826003072.499275</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>10820145976.18978</v>
+        <v>9860791863.792578</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>10834338596.7449</v>
+        <v>9894615199.296093</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>10847660289.1712</v>
+        <v>9927445291.874947</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>10860090298.74379</v>
+        <v>9959254870.26199</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>10871608361.48827</v>
+        <v>9990017224.117619</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>10882194740.54856</v>
+        <v>10019706249.69854</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>10891830263.2497</v>
+        <v>10048296496.13837</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>10900496358.88652</v>
+        <v>10075763212.34668</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>10908175097.27352</v>
+        <v>10102082394.53833</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>10914849228.09529</v>
+        <v>10127230834.40838</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>10920502221.1008</v>
+        <v>10151186167.97287</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>10925118307.18804</v>
+        <v>10173926925.09901</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>10928682520.42828</v>
+        <v>10195432579.75153</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>10931180741.08097</v>
+        <v>10215683600.98451</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>10932599739.65074</v>
+        <v>10234661504.70896</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>10932927222.03729</v>
+        <v>10252348906.26652</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>10932151875.82609</v>
+        <v>10268729573.83768</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>10930263417.7635</v>
+        <v>10283788482.70946</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>10927252642.45308</v>
+        <v>10297511870.42144</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>10923111472.29976</v>
+        <v>10309887292.80062</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>10917833008.71707</v>
+        <v>10320903680.88415</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>10911411584.59632</v>
+        <v>10330551398.71496</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>10903842818.01836</v>
+        <v>10338822301.97744</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>10895123667.16513</v>
+        <v>10345709797.41868</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>10885252486.36318</v>
+        <v>10351208902.97672</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>10874229083.15999</v>
+        <v>10355316308.50739</v>
       </c>
     </row>
   </sheetData>
